--- a/2022/Symphony/MAY/30.05.2022/MC Bank Statement May-2022.xlsx
+++ b/2022/Symphony/MAY/30.05.2022/MC Bank Statement May-2022.xlsx
@@ -3337,6 +3337,15 @@
     <xf numFmtId="0" fontId="3" fillId="37" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3384,15 +3393,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -9801,11 +9801,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9820,6 +9815,11 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -34551,8 +34551,8 @@
   </sheetPr>
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34571,35 +34571,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="364" t="s">
+      <c r="A1" s="367" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="365"/>
-      <c r="C1" s="365"/>
-      <c r="D1" s="365"/>
-      <c r="E1" s="366"/>
+      <c r="B1" s="368"/>
+      <c r="C1" s="368"/>
+      <c r="D1" s="368"/>
+      <c r="E1" s="369"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="370" t="s">
+      <c r="A2" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="371"/>
-      <c r="C2" s="371"/>
-      <c r="D2" s="371"/>
-      <c r="E2" s="372"/>
+      <c r="B2" s="374"/>
+      <c r="C2" s="374"/>
+      <c r="D2" s="374"/>
+      <c r="E2" s="375"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="367" t="s">
+      <c r="A3" s="370" t="s">
         <v>259</v>
       </c>
-      <c r="B3" s="368"/>
-      <c r="C3" s="368"/>
-      <c r="D3" s="368"/>
-      <c r="E3" s="369"/>
+      <c r="B3" s="371"/>
+      <c r="C3" s="371"/>
+      <c r="D3" s="371"/>
+      <c r="E3" s="372"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34622,15 +34622,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="373" t="s">
+      <c r="A4" s="376" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="374"/>
+      <c r="B4" s="377"/>
       <c r="C4" s="272"/>
-      <c r="D4" s="375" t="s">
+      <c r="D4" s="378" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="376"/>
+      <c r="E4" s="379"/>
       <c r="F4" s="5"/>
       <c r="G4" s="46"/>
       <c r="H4" s="7"/>
@@ -35111,13 +35111,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="22.5">
-      <c r="A19" s="361" t="s">
+      <c r="A19" s="364" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="362"/>
-      <c r="C19" s="362"/>
-      <c r="D19" s="362"/>
-      <c r="E19" s="363"/>
+      <c r="B19" s="365"/>
+      <c r="C19" s="365"/>
+      <c r="D19" s="365"/>
+      <c r="E19" s="366"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
@@ -35560,13 +35560,13 @@
       <c r="Y33" s="7"/>
     </row>
     <row r="34" spans="1:25" ht="21" thickBot="1">
-      <c r="A34" s="377" t="s">
+      <c r="A34" s="361" t="s">
         <v>261</v>
       </c>
-      <c r="B34" s="378"/>
-      <c r="C34" s="378"/>
-      <c r="D34" s="378"/>
-      <c r="E34" s="379"/>
+      <c r="B34" s="362"/>
+      <c r="C34" s="362"/>
+      <c r="D34" s="362"/>
+      <c r="E34" s="363"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
